--- a/Docs/BOM.xlsx
+++ b/Docs/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>Item</t>
   </si>
@@ -181,6 +181,51 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>SWITCH PUSHBUTTON SPST 5A 125V</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>External case cables &amp; Lower Printer Case</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>External Case Front Cover</t>
+  </si>
+  <si>
+    <t>PWR ENT MOD RCPT IEC320-C14 PNL</t>
+  </si>
+  <si>
+    <t>External Case Back Cover</t>
+  </si>
+  <si>
+    <t>Q307-ND</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>FUSE GLASS 5A 250VAC 5X20MM</t>
+  </si>
+  <si>
+    <t>(or similar 5A of this size)</t>
+  </si>
+  <si>
+    <t>F1748-ND</t>
+  </si>
+  <si>
+    <t>Get spares</t>
+  </si>
+  <si>
+    <t>24 VDC Fan - looking for specs</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -544,424 +589,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:I54"/>
+  <dimension ref="B5:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="3"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="36.88671875" customWidth="1"/>
-    <col min="9" max="9" width="54" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" customWidth="1"/>
+    <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H8" s="4" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>5</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
+      <c r="E20" s="3">
+        <v>1</v>
       </c>
       <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
       <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
       <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
         <v>25</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
       <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
         <v>26</v>
       </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>50</v>
       </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
       <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
         <v>29</v>
       </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
+      <c r="E30" s="3">
+        <v>1</v>
       </c>
       <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
         <v>30</v>
       </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>10</v>
       </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
       <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
         <v>34</v>
       </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="3">
         <v>5</v>
       </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
       <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
         <v>37</v>
       </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
       <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
         <v>40</v>
       </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E38" s="3">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
       <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
         <v>41</v>
       </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="3">
+      <c r="E40" s="3">
         <v>50</v>
       </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
       <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
         <v>42</v>
       </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
+      <c r="E42" s="3">
+        <v>1</v>
       </c>
       <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
         <v>48</v>
       </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>43</v>
       </c>
-      <c r="E44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>20</v>
       </c>
@@ -969,53 +1036,164 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>46</v>
       </c>
-      <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>22</v>
       </c>
       <c r="C52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>23</v>
       </c>
       <c r="C54" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="3">
         <v>4</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>53</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="3">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="3">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="3">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="3">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>69</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
